--- a/tables_new.xlsx
+++ b/tables_new.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Documents/projects/covid/science_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2656A507-50B8-FB44-B484-424576AF4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BE367-1121-3C4D-92A9-29BE365FCBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0A08B8D6-85B0-5848-BC12-55277B05860A}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{0A08B8D6-85B0-5848-BC12-55277B05860A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="cases" sheetId="1" r:id="rId1"/>
+    <sheet name="deaths" sheetId="2" r:id="rId2"/>
+    <sheet name="tier_5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="173">
   <si>
     <t>Table 2. Predicted total case counts, cases averted and % reduction with corresponding 95% credible intervals under different lockdown interventions (in millions)</t>
   </si>
@@ -202,8 +203,224 @@
     <t>Tier II start date</t>
   </si>
   <si>
+    <t>March 30</t>
+  </si>
+  <si>
+    <t>April 15</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2.1
+0.4 [0.0, 2.4]
+1.7 [-0.2, 2.1]
+79.4% [-10.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>7.0
+0.8 [0.0, 3.5]
+6.3 [3.5, 7.0]
+89.2% [49.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>4.9
+2.2 [0.0, 5.1]
+2.7 [-0.2, 4.9]
+54.6% [-4.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>12.5
+1.0 [0.0, 4.5]
+11.5 [8.0, 12.5]
+91.9% [64.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>10.4
+4.4 [0.3, 9.6]
+6.0 [0.8, 10.1]
+57.7% [7.8%, 97.4%]</t>
+  </si>
+  <si>
+    <t>15.9
+1.2 [0.0, 5.4]
+14.7 [10.5, 15.9]
+92.2% [66.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>13.8
+6.5 [0.8, 14.2]
+7.2 [-0.4, 13.0]
+52.6% [-3.1%, 94.4%]</t>
+  </si>
+  <si>
+    <t>17.5
+1.5 [0.0, 6.4]
+16.0 [11.1, 17.5]
+91.4% [63.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.3
+8.9 [1.3, 19.9]
+6.5 [-4.5, 14.1]
+42.2% [-29.4%, 91.6%]</t>
+  </si>
+  <si>
+    <t>0.8
+0.1 [0.0, 1.8]
+0.7 [-1.0, 0.8]
+92.6% [-127.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>0.6
+0.1 [0.0, 1.5]
+0.5 [-0.9, 0.6]
+88.9% [-152.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+0.1 [0.0, 2.5]
+2.8 [0.4, 2.9]
+97.0% [15.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.7
+0.1 [0.0, 2.3]
+2.6 [0.4, 2.7]
+95.2% [14.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.1
+0.3 [0.0, 2.1]
+1.9 [0.0, 2.1]
+86.8% [1.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>7.8
+0.1 [0.0, 3.0]
+7.7 [4.8, 7.8]
+98.7% [61.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>7.6
+0.2 [0.0, 2.9]
+7.4 [4.7, 7.6]
+97.8% [61.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>7.0
+0.5 [0.0, 3.1]
+6.5 [4.0, 7.0]
+93.1% [56.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>4.9
+1.5 [0.0, 3.9]
+3.3 [1.0, 4.9]
+68.8% [20.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>13.3
+0.1 [0.0, 3.4]
+13.2 [9.9, 13.3]
+99.2% [74.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>13.1
+0.2 [0.0, 3.4]
+12.9 [9.7, 13.1]
+98.5% [73.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>12.5
+0.6 [0.0, 3.8]
+11.9 [8.7, 12.5]
+94.9% [69.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>10.4
+2.9 [0.0, 6.7]
+7.5 [3.7, 10.4]
+72.5% [35.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>16.7
+0.1 [0.0, 3.9]
+16.6 [12.8, 16.7]
+99.4% [76.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>16.5
+0.2 [0.0, 3.9]
+16.3 [12.6, 16.5]
+98.7% [76.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.9
+0.8 [0.0, 4.5]
+15.1 [11.4, 15.9]
+95.1% [71.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>13.8
+4.0 [0.0, 9.3]
+9.7 [4.4, 13.8]
+70.8% [32.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.3
+0.1 [0.0, 4.3]
+18.2 [14.0, 18.3]
+99.5% [76.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+0.2 [0.0, 4.3]
+17.9 [13.8, 18.1]
+98.8% [76.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>17.5
+0.9 [0.0, 5.3]
+16.6 [12.2, 17.5]
+94.8% [69.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.3
+5.1 [0.0, 12.0]
+10.2 [3.3, 15.3]
+66.5% [21.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>Strong lockdown start date</t>
+  </si>
+  <si>
+    <t>Table S5. Predicted total case counts, cases averted and % reduction with corresponding 95% credible intervals under strong lockdown intervention (in millions)</t>
+  </si>
+  <si>
     <r>
-      <t>Table 2</t>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Each cell reports (1) the total number of observed deaths since the start of intervention in the first row, (2) total number of predicted deaths since the start of intervention in the second row (with 95% CI), (3) the number of deaths averted (relative to observed) since the start of intervention in the third row (with 95% CI), and (4) the relative reduction in cases (as a percent) under lockdown in the fourth row (with 95% CI) from the intervention start date through the evaluation date. Cells that are highlighted in red represent a statistically significant reduction in the number of cases under intervention at the 95% credible interval level. Numbers are reported in thousands.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table S3. </t>
     </r>
     <r>
       <rPr>
@@ -212,7 +429,647 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>. Predicted total death counts and deaths averted under moderate lockdown effect (in thousands)</t>
+      <t>Predicted total death counts and deaths averted under low CFR schedule (in thousands)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table S4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Predicted total death counts and deaths averted under high CFR schedule (in thousands)</t>
+    </r>
+  </si>
+  <si>
+    <t>6.3
+2.3 [0.0, 27.1]
+4.0 [-20.8, 6.3]
+63.7% [-333.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.9
+1.4 [0.0, 19.6]
+2.4 [-15.7, 3.9]
+63.2% [-407.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+1.4 [0.0, 17.7]
+1.5 [-14.8, 2.9]
+50.6% [-508.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+3.2 [0.0, 36.2]
+14.9 [-18.1, 18.1]
+82.3% [-100.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+2.6 [0.0, 30.6]
+13.1 [-14.9, 15.7]
+83.7% [-95.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+3.0 [0.0, 30.0]
+11.7 [-15.3, 14.7]
+79.7% [-103.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>55.6
+4.2 [0.0, 47.6]
+51.4 [8.0, 55.6]
+92.5% [14.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+3.6 [0.0, 42.6]
+49.6 [10.6, 53.2]
+93.2% [19.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+4.4 [0.0, 43.0]
+47.9 [9.3, 52.2]
+91.7% [17.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>114.1
+4.9 [0.0, 54.1]
+109.2 [60.0, 114.1]
+95.7% [52.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+4.4 [0.0, 49.1]
+107.3 [62.6, 111.7]
+96.1% [56.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>110.7
+5.2 [0.0, 49.9]
+105.5 [60.8, 110.7]
+95.3% [54.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>172.9
+5.4 [0.0, 58.5]
+167.5 [114.4, 172.9]
+96.9% [66.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+4.9 [0.0, 53.3]
+165.6 [117.2, 170.5]
+97.1% [68.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+5.8 [0.0, 54.3]
+163.7 [115.2, 169.5]
+96.6% [68.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>223.4
+6.0 [0.0, 66.1]
+217.3 [157.3, 223.4]
+97.3% [70.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+5.6 [0.0, 60.8]
+215.4 [160.1, 221.0]
+97.5% [72.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+6.7 [0.0, 62.1]
+213.3 [157.9, 220.0]
+97.0% [71.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>6.3
+1.0 [0.0, 12.3]
+5.3 [-6.0, 6.3]
+84.5% [-96.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.9
+0.7 [0.0, 10.0]
+3.1 [-6.2, 3.9]
+81.3% [-159.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+0.8 [0.0, 9.3]
+2.2 [-6.4, 2.9]
+74.1% [-218.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+1.5 [0.0, 18.7]
+16.6 [-0.6, 18.1]
+91.6% [-3.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+1.4 [0.0, 17.1]
+14.3 [-1.4, 15.7]
+91.1% [-9.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+1.7 [0.0, 17.1]
+13.1 [-2.4, 14.7]
+88.6% [-16.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>55.6
+1.9 [0.0, 23.0]
+53.7 [32.6, 55.6]
+96.5% [58.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+1.8 [0.0, 21.3]
+51.3 [31.9, 53.2]
+96.5% [59.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+2.3 [0.0, 21.7]
+50.0 [30.5, 52.2]
+95.7% [58.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>114.1
+2.1 [0.0, 24.0]
+112.0 [90.1, 114.1]
+98.2% [79.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+2.0 [0.0, 22.4]
+109.6 [89.3, 111.7]
+98.2% [80.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>110.7
+2.5 [0.0, 22.7]
+108.3 [88.0, 110.7]
+97.8% [79.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>172.9
+2.3 [0.0, 25.4]
+170.6 [147.5, 172.9]
+98.7% [85.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+2.2 [0.0, 23.6]
+168.3 [146.8, 170.5]
+98.7% [86.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+2.7 [0.0, 24.1]
+166.8 [145.4, 169.5]
+98.4% [85.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>223.4
+2.6 [0.0, 29.1]
+220.7 [194.3, 223.4]
+98.8% [87.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+2.5 [0.0, 27.3]
+218.4 [193.6, 221.0]
+98.8% [87.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+3.1 [0.0, 27.9]
+216.9 [192.1, 220.0]
+98.6% [87.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>6.3
+3.1 [0.0, 38.5]
+3.1 [-32.2, 6.3]
+49.9% [-515.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.9
+1.1 [0.0, 14.9]
+2.8 [-11.1, 3.9]
+71.6% [-287.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+1.1 [0.0, 13.0]
+1.9 [-10.1, 2.9]
+63.7% [-346.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+3.8 [0.0, 42.6]
+14.3 [-24.5, 18.1]
+79.0% [-135.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+1.9 [0.0, 22.7]
+13.8 [-7.0, 15.7]
+87.7% [-44.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+2.2 [0.0, 21.9]
+12.5 [-7.2, 14.7]
+85.1% [-48.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>55.6
+4.4 [0.0, 47.1]
+51.2 [8.5, 55.6]
+92.1% [15.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+2.6 [0.0, 29.3]
+50.6 [23.9, 53.2]
+95.2% [44.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+3.0 [0.0, 29.2]
+49.2 [23.1, 52.2]
+94.2% [44.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>114.1
+5.0 [0.0, 52.9]
+109.0 [61.2, 114.1]
+95.6% [53.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+3.3 [0.0, 37.0]
+108.4 [74.7, 111.7]
+97.1% [66.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>110.7
+3.8 [0.0, 37.2]
+106.9 [73.5, 110.7]
+96.6% [66.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>172.9
+6.0 [0.0, 63.9]
+166.9 [109.0, 172.9]
+96.6% [63.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+4.2 [0.0, 50.3]
+166.3 [120.2, 170.5]
+97.5% [70.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+4.9 [0.0, 50.8]
+164.6 [118.7, 169.5]
+97.1% [70.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>223.4
+7.9 [0.0, 109.9]
+215.5 [113.4, 223.4]
+96.5% [50.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+6.2 [0.0, 99.4]
+214.8 [121.5, 221.0]
+97.2% [55.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+7.3 [0.0, 101.8]
+212.7 [118.2, 220.0]
+96.7% [53.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.9
+1.1 [0.0, 19.2]
+2.7 [-15.4, 3.9]
+70.7% [-397.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+1.3 [0.0, 17.4]
+1.7 [-14.5, 2.9]
+56.8% [-499.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+1.8 [0.0, 29.4]
+13.9 [-13.7, 15.7]
+88.6% [-87.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+2.4 [0.0, 29.2]
+12.4 [-14.4, 14.7]
+83.8% [-98.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>11.8
+4.6 [0.0, 28.6]
+7.2 [-16.7, 11.8]
+60.7% [-141.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+2.3 [0.0, 40.4]
+50.9 [12.8, 53.2]
+95.8% [24.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+3.2 [0.0, 41.1]
+49.1 [11.2, 52.2]
+93.9% [21.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+8.1 [0.0, 46.3]
+41.3 [3.0, 49.3]
+83.6% [6.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+30.2 [0.0, 71.9]
+7.4 [-34.4, 37.5]
+19.6% [-91.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+2.5 [0.0, 46.0]
+109.1 [65.6, 111.7]
+97.7% [58.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>110.7
+3.6 [0.0, 47.3]
+107.1 [63.4, 110.7]
+96.7% [57.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+9.9 [0.0, 55.3]
+97.9 [52.5, 107.8]
+90.8% [48.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+48.2 [0.0, 107.5]
+47.8 [-11.5, 96.0]
+49.8% [-12.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+2.7 [0.0, 49.6]
+167.8 [120.9, 170.5]
+98.4% [70.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+3.9 [0.0, 51.1]
+165.6 [118.5, 169.5]
+97.7% [69.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>166.6
+11.0 [0.0, 60.6]
+155.6 [106.0, 166.6]
+93.4% [63.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+59.0 [0.0, 128.7]
+95.8 [26.1, 154.8]
+61.9% [16.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+2.8 [0.0, 55.8]
+218.1 [165.2, 221.0]
+98.7% [74.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+4.2 [0.0, 57.8]
+215.8 [162.2, 220.0]
+98.1% [73.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>217.1
+12.2 [0.0, 69.3]
+204.9 [147.8, 217.1]
+94.4% [68.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+70.6 [0.0, 156.6]
+134.6 [48.6, 205.3]
+65.6% [23.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>11.8
+5.6 [0.0, 30.3]
+6.2 [-18.4, 11.8]
+52.3% [-155.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+10.9 [0.0, 51.3]
+38.5 [-2.0, 49.3]
+78.0% [-4.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+36.6 [0.0, 84.2]
+0.9 [-46.7, 37.5]
+2.5% [-124.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+14.2 [0.0, 63.8]
+93.6 [44.0, 107.8]
+86.8% [40.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+65.0 [3.9, 141.7]
+31.0 [-45.7, 92.1]
+32.3% [-47.6%, 95.9%]</t>
+  </si>
+  <si>
+    <t>166.6
+16.7 [0.0, 72.3]
+149.9 [94.3, 166.6]
+90.0% [56.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+88.0 [10.6, 189.0]
+66.8 [-34.2, 144.2]
+43.2% [-22.1%, 93.2%]</t>
+  </si>
+  <si>
+    <t>217.1
+20.2 [0.0, 87.4]
+196.9 [129.7, 217.1]
+90.7% [59.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+121.3 [17.6, 269.0]
+83.9 [-63.7, 187.6]
+40.9% [-31.0%, 91.4%]</t>
+  </si>
+  <si>
+    <t>11.8
+4.1 [0.0, 21.8]
+7.7 [-10.0, 11.8]
+65.5% [-84.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+7.3 [0.0, 34.0]
+42.1 [15.3, 49.3]
+85.3% [31.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+22.3 [0.0, 51.6]
+15.2 [-14.1, 37.5]
+40.6% [-37.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+10.4 [0.0, 47.5]
+97.4 [60.4, 107.8]
+90.3% [56.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+49.2 [2.9, 108.1]
+46.8 [-12.1, 93.1]
+48.8% [-12.6%, 97.0%]</t>
+  </si>
+  <si>
+    <t>166.6
+14.6 [0.0, 68.4]
+152.0 [98.2, 166.6]
+91.2% [59.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+88.6 [8.4, 198.0]
+66.2 [-43.2, 146.4]
+42.8% [-27.9%, 94.6%]</t>
+  </si>
+  <si>
+    <t>217.1
+25.1 [0.0, 139.8]
+192.0 [77.3, 217.1]
+88.5% [35.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+186.6 [2.7, 473.6]
+18.6 [-268.3, 202.6]
+9.1% [-130.7%, 98.7%]</t>
+  </si>
+  <si>
+    <t>11.8
+3.4 [0.0, 18.1]
+8.5 [-6.3, 11.8]
+71.5% [-53.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+5.6 [0.0, 26.0]
+43.8 [23.4, 49.3]
+88.7% [47.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+15.4 [0.0, 35.7]
+22.1 [1.8, 37.5]
+58.9% [4.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+6.4 [0.0, 28.3]
+101.4 [79.6, 107.8]
+94.1% [73.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+22.2 [0.5, 48.7]
+73.7 [47.3, 95.5]
+76.8% [49.3%, 99.5%]</t>
+  </si>
+  <si>
+    <t>166.6
+7.3 [0.0, 31.0]
+159.4 [135.6, 166.6]
+95.6% [81.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+30.3 [2.9, 64.8]
+124.5 [90.0, 151.9]
+80.4% [58.1%, 98.1%]</t>
+  </si>
+  <si>
+    <t>217.1
+9.0 [0.0, 38.2]
+208.1 [178.9, 217.1]
+95.9% [82.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+46.5 [6.0, 104.4]
+158.8 [100.8, 199.3]
+77.3% [49.1%, 97.1%]</t>
+  </si>
+  <si>
+    <r>
+      <t>Table 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Predicted total death counts, deaths averted and % reduction with corresponding 95% credible intervals under different lockdown interventions and moderate CFR (in thousands)</t>
     </r>
   </si>
   <si>
@@ -233,240 +1090,29 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>: For lockdown schedules, each cell reports the total number of deaths in the first row, the number of deaths averted (relative to observed) in the second row, and the relative reduction in deaths (as a percent) in the third row. Numbers are reported in thousands.</t>
+      <t>: Each cell reports (1) the total number of observed deaths since the start of intervention in the first row, (2) total number of predicted deaths since the start of intervention in the second row (with 95% CI), (3) the number of deaths averted (relative to observed) since the start of intervention in the third row (with 95% CI), and (4) the relative reduction in cases (as a percent) under lockdown in the fourth row (with 95% CI) from the intervention start date through the evaluation date. Cells that are highlighted in red represent a statistically significant reduction in the number of cases under intervention at the 95% credible interval level. Numbers are reported in thousands.</t>
     </r>
   </si>
   <si>
-    <t>6.3
-1.5 [0.0, 17.2]
-4.8 [-10.9, 6.3]
-76.2% [-174.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>3.9
-0.7 [0.0, 9.5]
-3.2 [-5.7, 3.9]
-81.9% [-146.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>2.9
-0.6 [0.0, 7.6]
-2.3 [-4.7, 2.9]
-78.8% [-160.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>18.1
-1.9 [0.0, 20.2]
-16.2 [-2.1, 18.1]
-89.5% [-11.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>15.7
-1.2 [0.0, 14.0]
-14.5 [1.7, 15.7]
-92.4% [11.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>14.7
-1.3 [0.0, 12.9]
-13.5 [1.8, 14.7]
-91.2% [12.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>55.6
-2.3 [0.0, 24.2]
-53.3 [31.4, 55.6]
-95.9% [56.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>53.2
-1.6 [0.0, 18.7]
-51.6 [34.5, 53.2]
-97.0% [64.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>52.2
-1.8 [0.0, 18.2]
-50.4 [34.1, 52.2]
-96.5% [65.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>114.1
-2.8 [0.0, 30.6]
-111.3 [83.4, 114.1]
-97.5% [73.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>111.7
-2.2 [0.0, 26.0]
-109.5 [85.7, 111.7]
-98.0% [76.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>110.7
-2.5 [0.0, 26.0]
-108.2 [84.7, 110.7]
-97.8% [76.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>172.9
-3.6 [0.0, 43.1]
-169.3 [129.8, 172.9]
-97.9% [75.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>170.5
-3.0 [0.0, 39.2]
-167.5 [131.3, 170.5]
-98.2% [77.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>169.5
-3.4 [0.0, 39.5]
-166.1 [130.1, 169.5]
-98.0% [76.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>223.4
-5.0 [0.0, 72.0]
-218.4 [151.4, 223.4]
-97.8% [67.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>221.0
-4.4 [0.0, 68.3]
-216.6 [152.7, 221.0]
-98.0% [69.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>220.0
-5.2 [0.0, 69.4]
-214.8 [150.6, 220.0]
-97.7% [68.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>March 30</t>
-  </si>
-  <si>
-    <t>April 15</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2.1
-0.4 [0.0, 2.4]
-1.7 [-0.2, 2.1]
-79.4% [-10.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>7.0
-0.8 [0.0, 3.5]
-6.3 [3.5, 7.0]
-89.2% [49.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>4.9
-2.2 [0.0, 5.1]
-2.7 [-0.2, 4.9]
-54.6% [-4.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>12.5
-1.0 [0.0, 4.5]
-11.5 [8.0, 12.5]
-91.9% [64.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>10.4
-4.4 [0.3, 9.6]
-6.0 [0.8, 10.1]
-57.7% [7.8%, 97.4%]</t>
-  </si>
-  <si>
-    <t>15.9
-1.2 [0.0, 5.4]
-14.7 [10.5, 15.9]
-92.2% [66.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>13.8
-6.5 [0.8, 14.2]
-7.2 [-0.4, 13.0]
-52.6% [-3.1%, 94.4%]</t>
-  </si>
-  <si>
-    <t>17.5
-1.5 [0.0, 6.4]
-16.0 [11.1, 17.5]
-91.4% [63.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>15.3
-8.9 [1.3, 19.9]
-6.5 [-4.5, 14.1]
-42.2% [-29.4%, 91.6%]</t>
-  </si>
-  <si>
-    <t>11.8
-2.4 [0.0, 13.0]
-9.4 [-1.1, 11.8]
-79.5% [-9.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>49.3
-4.6 [0.0, 21.7]
-44.8 [27.7, 49.3]
-90.7% [56.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>37.5
-15.0 [0.0, 34.6]
-22.5 [2.9, 37.5]
-60.1% [7.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>107.8
-7.1 [0.0, 33.6]
-100.7 [74.2, 107.8]
-93.4% [68.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>96.0
-36.9 [1.9, 81.5]
-59.1 [14.5, 94.1]
-61.6% [15.1%, 98.0%]</t>
-  </si>
-  <si>
-    <t>166.6
-10.9 [0.0, 53.1]
-155.8 [113.5, 166.6]
-93.5% [68.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>154.8
-71.4 [5.7, 161.8]
-83.4 [-7.0, 149.0]
-53.9% [-4.5%, 96.3%]</t>
-  </si>
-  <si>
-    <t>217.1
-18.3 [0.0, 98.1]
-198.8 [119.0, 217.1]
-91.6% [54.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>205.3
-140.9 [7.9, 351.4]
-64.3 [-146.1, 197.3]
-31.3% [-71.2%, 96.1%]</t>
+    <r>
+      <t>Table S6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Predicted total death counts, deaths averted and % reduction with corresponding 95% credible intervals understrong lockdown and moderate CFR (in thousands)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,8 +1195,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,8 +1239,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -769,11 +1427,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -867,110 +1549,128 @@
     <xf numFmtId="16" fontId="7" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635503AF-5630-4745-A3E7-6CD39F37FDC0}">
   <dimension ref="C2:K14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,34 +2021,34 @@
     </row>
     <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="18"/>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
       <c r="K4" s="19"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" s="18"/>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="66"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
@@ -1368,20 +2068,20 @@
       <c r="H6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>51</v>
+      <c r="I6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C7" s="18"/>
-      <c r="D7" s="67">
+      <c r="D7" s="53">
         <v>44285</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="54" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1393,20 +2093,20 @@
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>52</v>
+      <c r="I7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C8" s="18"/>
-      <c r="D8" s="69">
+      <c r="D8" s="55">
         <v>44301</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="56" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1418,20 +2118,20 @@
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>52</v>
+      <c r="I8" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="K8" s="19"/>
     </row>
     <row r="9" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C9" s="18"/>
-      <c r="D9" s="67">
+      <c r="D9" s="53">
         <v>44316</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="54" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1443,20 +2143,20 @@
       <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>55</v>
+      <c r="I9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>35</v>
       </c>
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="18"/>
-      <c r="D10" s="69">
+      <c r="D10" s="55">
         <v>44331</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="56" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1468,20 +2168,20 @@
       <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>57</v>
+      <c r="I10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>37</v>
       </c>
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C11" s="18"/>
-      <c r="D11" s="67">
+      <c r="D11" s="53">
         <v>44346</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="54" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1493,11 +2193,11 @@
       <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>59</v>
+      <c r="I11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -1518,25 +2218,25 @@
       <c r="H12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="65" t="s">
-        <v>61</v>
+      <c r="I12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>41</v>
       </c>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="3:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C13" s="18"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1562,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E3A7A1-1E39-724C-B640-902CB4BEED4C}">
-  <dimension ref="C4:K16"/>
+  <dimension ref="C4:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,15 +2291,15 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" s="18"/>
-      <c r="D6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="D6" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
@@ -1608,17 +2308,17 @@
         <v>1</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
@@ -1638,11 +2338,11 @@
       <c r="H8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>51</v>
+      <c r="I8" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="K8" s="19"/>
     </row>
@@ -1655,19 +2355,19 @@
         <v>4</v>
       </c>
       <c r="F9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>52</v>
+      <c r="J9" s="71" t="s">
+        <v>32</v>
       </c>
       <c r="K9" s="19"/>
     </row>
@@ -1680,19 +2380,19 @@
         <v>4</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>32</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -1705,19 +2405,19 @@
         <v>4</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="72" t="s">
+        <v>145</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -1730,19 +2430,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="74" t="s">
+        <v>147</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -1755,58 +2455,58 @@
         <v>4</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>68</v>
+        <v>82</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="72" t="s">
+        <v>149</v>
       </c>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="3:11" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
-      <c r="D14" s="52">
+      <c r="D14" s="40">
         <v>44362</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="41" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="I14" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="77" t="s">
+        <v>151</v>
       </c>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="3:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C15" s="18"/>
-      <c r="D15" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="D15" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1820,11 +2520,962 @@
       <c r="J16" s="31"/>
       <c r="K16" s="32"/>
     </row>
+    <row r="18" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="18"/>
+      <c r="D20" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="18"/>
+      <c r="D21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="18"/>
+      <c r="D22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="3:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="C23" s="18"/>
+      <c r="D23" s="22">
+        <v>44285</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="3:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="C24" s="18"/>
+      <c r="D24" s="25">
+        <v>44301</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="3:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="C25" s="18"/>
+      <c r="D25" s="22">
+        <v>44316</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="3:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="C26" s="18"/>
+      <c r="D26" s="25">
+        <v>44331</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="3:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="C27" s="18"/>
+      <c r="D27" s="22">
+        <v>44346</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="3:11" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="18"/>
+      <c r="D28" s="40">
+        <v>44362</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="3:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="18"/>
+      <c r="D29" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+    </row>
+    <row r="32" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="18"/>
+      <c r="D34" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="19"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="18"/>
+      <c r="D35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="19"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="18"/>
+      <c r="D36" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="19"/>
+    </row>
+    <row r="37" spans="3:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="C37" s="18"/>
+      <c r="D37" s="22">
+        <v>44285</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="19"/>
+    </row>
+    <row r="38" spans="3:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="C38" s="18"/>
+      <c r="D38" s="25">
+        <v>44301</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="J38" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="19"/>
+    </row>
+    <row r="39" spans="3:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="C39" s="18"/>
+      <c r="D39" s="22">
+        <v>44316</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="J39" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="40" spans="3:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="C40" s="18"/>
+      <c r="D40" s="25">
+        <v>44331</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="J40" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="19"/>
+    </row>
+    <row r="41" spans="3:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="C41" s="18"/>
+      <c r="D41" s="22">
+        <v>44346</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="J41" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" s="19"/>
+    </row>
+    <row r="42" spans="3:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="18"/>
+      <c r="D42" s="40">
+        <v>44362</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="J42" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="K42" s="19"/>
+    </row>
+    <row r="43" spans="3:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="18"/>
+      <c r="D43" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="19"/>
+    </row>
+    <row r="44" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="D43:J43"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="D29:J29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9C7BA-2307-9A4A-B352-2FB3768D84C5}">
+  <dimension ref="B1:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="8" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="17" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="2:18" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="18"/>
+      <c r="C3" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+      <c r="C4" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="18"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="2:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" s="18"/>
+      <c r="C6" s="53">
+        <v>44285</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="2:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
+      <c r="C7" s="55">
+        <v>44301</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="2:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="53">
+        <v>44316</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="2:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="B9" s="18"/>
+      <c r="C9" s="55">
+        <v>44331</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="2:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="C10" s="53">
+        <v>44346</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:18" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="8">
+        <v>44362</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="2:18" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="18"/>
+      <c r="C12" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="18"/>
+      <c r="L15" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K16" s="18"/>
+      <c r="L16" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="52"/>
+      <c r="N16" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K17" s="18"/>
+      <c r="L17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="11:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="K18" s="18"/>
+      <c r="L18" s="53">
+        <v>44285</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="11:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="K19" s="18"/>
+      <c r="L19" s="55">
+        <v>44301</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="11:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="K20" s="18"/>
+      <c r="L20" s="53">
+        <v>44316</v>
+      </c>
+      <c r="M20" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="11:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="K21" s="18"/>
+      <c r="L21" s="55">
+        <v>44331</v>
+      </c>
+      <c r="M21" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="11:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="K22" s="18"/>
+      <c r="L22" s="53">
+        <v>44346</v>
+      </c>
+      <c r="M22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="11:18" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="18"/>
+      <c r="L23" s="8">
+        <v>44362</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="11:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="18"/>
+      <c r="L24" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="11:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables_new.xlsx
+++ b/tables_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Documents/projects/covid/science_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BE367-1121-3C4D-92A9-29BE365FCBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89D016A-FF99-224A-8C23-F5547B61E556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{0A08B8D6-85B0-5848-BC12-55277B05860A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{0A08B8D6-85B0-5848-BC12-55277B05860A}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -92,66 +92,6 @@
     <t>March 19</t>
   </si>
   <si>
-    <t>1.2
-0.2 [0.0, 2.8]
-0.9 [-1.7, 1.2]
-79.2% [-142.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>0.8
-0.1 [0.0, 1.9]
-0.7 [-1.1, 0.8]
-82.7% [-136.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>0.6
-0.1 [0.0, 1.6]
-0.5 [-1.0, 0.6]
-78.6% [-163.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>3.3
-0.3 [0.0, 3.4]
-3.0 [-0.1, 3.3]
-90.5% [-3.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>2.9
-0.2 [0.0, 2.6]
-2.7 [0.3, 2.9]
-92.3% [10.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>2.7
-0.2 [0.0, 2.5]
-2.5 [0.3, 2.7]
-90.9% [10.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>8.2
-0.4 [0.0, 3.9]
-7.8 [4.2, 8.2]
-95.4% [51.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>7.8
-0.3 [0.0, 3.2]
-7.5 [4.6, 7.8]
-96.3% [59.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>7.6
-0.3 [0.0, 3.1]
-7.3 [4.5, 7.6]
-95.6% [59.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>13.7
-0.4 [0.0, 4.4]
-13.3 [9.3, 13.7]
-96.9% [67.8%, 100.0%]</t>
-  </si>
-  <si>
     <t>13.3
 0.3 [0.0, 3.7]
 13.0 [9.6, 13.3]
@@ -164,42 +104,12 @@
 97.0% [72.1%, 100.0%]</t>
   </si>
   <si>
-    <t>17.1
-0.5 [0.0, 4.9]
-16.6 [12.2, 17.1]
-97.2% [71.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>16.7
-0.4 [0.0, 4.2]
-16.3 [12.5, 16.7]
-97.6% [75.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>16.5
-0.5 [0.0, 4.1]
-16.0 [12.3, 16.5]
-97.2% [74.9%, 100.0%]</t>
-  </si>
-  <si>
     <t>18.7
 0.5 [0.0, 5.3]
 18.1 [13.4, 18.7]
 97.2% [71.6%, 100.0%]</t>
   </si>
   <si>
-    <t>18.3
-0.4 [0.0, 4.6]
-17.8 [13.6, 18.3]
-97.6% [74.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>18.1
-0.5 [0.0, 4.6]
-17.6 [13.4, 18.1]
-97.2% [74.4%, 100.0%]</t>
-  </si>
-  <si>
     <t>Tier II start date</t>
   </si>
   <si>
@@ -210,60 +120,12 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>2.1
-0.4 [0.0, 2.4]
-1.7 [-0.2, 2.1]
-79.4% [-10.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>7.0
-0.8 [0.0, 3.5]
-6.3 [3.5, 7.0]
-89.2% [49.7%, 100.0%]</t>
   </si>
   <si>
     <t>4.9
 2.2 [0.0, 5.1]
 2.7 [-0.2, 4.9]
 54.6% [-4.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>12.5
-1.0 [0.0, 4.5]
-11.5 [8.0, 12.5]
-91.9% [64.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>10.4
-4.4 [0.3, 9.6]
-6.0 [0.8, 10.1]
-57.7% [7.8%, 97.4%]</t>
-  </si>
-  <si>
-    <t>15.9
-1.2 [0.0, 5.4]
-14.7 [10.5, 15.9]
-92.2% [66.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>13.8
-6.5 [0.8, 14.2]
-7.2 [-0.4, 13.0]
-52.6% [-3.1%, 94.4%]</t>
-  </si>
-  <si>
-    <t>17.5
-1.5 [0.0, 6.4]
-16.0 [11.1, 17.5]
-91.4% [63.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>15.3
-8.9 [1.3, 19.9]
-6.5 [-4.5, 14.1]
-42.2% [-29.4%, 91.6%]</t>
   </si>
   <si>
     <t>0.8
@@ -447,330 +309,12 @@
     </r>
   </si>
   <si>
-    <t>6.3
-2.3 [0.0, 27.1]
-4.0 [-20.8, 6.3]
-63.7% [-333.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>3.9
-1.4 [0.0, 19.6]
-2.4 [-15.7, 3.9]
-63.2% [-407.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>2.9
-1.4 [0.0, 17.7]
-1.5 [-14.8, 2.9]
-50.6% [-508.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>18.1
-3.2 [0.0, 36.2]
-14.9 [-18.1, 18.1]
-82.3% [-100.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>15.7
-2.6 [0.0, 30.6]
-13.1 [-14.9, 15.7]
-83.7% [-95.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>14.7
-3.0 [0.0, 30.0]
-11.7 [-15.3, 14.7]
-79.7% [-103.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>55.6
-4.2 [0.0, 47.6]
-51.4 [8.0, 55.6]
-92.5% [14.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>53.2
-3.6 [0.0, 42.6]
-49.6 [10.6, 53.2]
-93.2% [19.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>52.2
-4.4 [0.0, 43.0]
-47.9 [9.3, 52.2]
-91.7% [17.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>114.1
-4.9 [0.0, 54.1]
-109.2 [60.0, 114.1]
-95.7% [52.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>111.7
-4.4 [0.0, 49.1]
-107.3 [62.6, 111.7]
-96.1% [56.1%, 100.0%]</t>
-  </si>
-  <si>
     <t>110.7
 5.2 [0.0, 49.9]
 105.5 [60.8, 110.7]
 95.3% [54.9%, 100.0%]</t>
   </si>
   <si>
-    <t>172.9
-5.4 [0.0, 58.5]
-167.5 [114.4, 172.9]
-96.9% [66.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>170.5
-4.9 [0.0, 53.3]
-165.6 [117.2, 170.5]
-97.1% [68.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>169.5
-5.8 [0.0, 54.3]
-163.7 [115.2, 169.5]
-96.6% [68.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>223.4
-6.0 [0.0, 66.1]
-217.3 [157.3, 223.4]
-97.3% [70.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>221.0
-5.6 [0.0, 60.8]
-215.4 [160.1, 221.0]
-97.5% [72.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>220.0
-6.7 [0.0, 62.1]
-213.3 [157.9, 220.0]
-97.0% [71.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>6.3
-1.0 [0.0, 12.3]
-5.3 [-6.0, 6.3]
-84.5% [-96.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>3.9
-0.7 [0.0, 10.0]
-3.1 [-6.2, 3.9]
-81.3% [-159.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>2.9
-0.8 [0.0, 9.3]
-2.2 [-6.4, 2.9]
-74.1% [-218.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>18.1
-1.5 [0.0, 18.7]
-16.6 [-0.6, 18.1]
-91.6% [-3.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>15.7
-1.4 [0.0, 17.1]
-14.3 [-1.4, 15.7]
-91.1% [-9.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>14.7
-1.7 [0.0, 17.1]
-13.1 [-2.4, 14.7]
-88.6% [-16.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>55.6
-1.9 [0.0, 23.0]
-53.7 [32.6, 55.6]
-96.5% [58.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>53.2
-1.8 [0.0, 21.3]
-51.3 [31.9, 53.2]
-96.5% [59.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>52.2
-2.3 [0.0, 21.7]
-50.0 [30.5, 52.2]
-95.7% [58.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>114.1
-2.1 [0.0, 24.0]
-112.0 [90.1, 114.1]
-98.2% [79.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>111.7
-2.0 [0.0, 22.4]
-109.6 [89.3, 111.7]
-98.2% [80.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>110.7
-2.5 [0.0, 22.7]
-108.3 [88.0, 110.7]
-97.8% [79.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>172.9
-2.3 [0.0, 25.4]
-170.6 [147.5, 172.9]
-98.7% [85.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>170.5
-2.2 [0.0, 23.6]
-168.3 [146.8, 170.5]
-98.7% [86.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>169.5
-2.7 [0.0, 24.1]
-166.8 [145.4, 169.5]
-98.4% [85.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>223.4
-2.6 [0.0, 29.1]
-220.7 [194.3, 223.4]
-98.8% [87.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>221.0
-2.5 [0.0, 27.3]
-218.4 [193.6, 221.0]
-98.8% [87.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>220.0
-3.1 [0.0, 27.9]
-216.9 [192.1, 220.0]
-98.6% [87.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>6.3
-3.1 [0.0, 38.5]
-3.1 [-32.2, 6.3]
-49.9% [-515.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>3.9
-1.1 [0.0, 14.9]
-2.8 [-11.1, 3.9]
-71.6% [-287.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>2.9
-1.1 [0.0, 13.0]
-1.9 [-10.1, 2.9]
-63.7% [-346.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>18.1
-3.8 [0.0, 42.6]
-14.3 [-24.5, 18.1]
-79.0% [-135.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>15.7
-1.9 [0.0, 22.7]
-13.8 [-7.0, 15.7]
-87.7% [-44.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>14.7
-2.2 [0.0, 21.9]
-12.5 [-7.2, 14.7]
-85.1% [-48.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>55.6
-4.4 [0.0, 47.1]
-51.2 [8.5, 55.6]
-92.1% [15.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>53.2
-2.6 [0.0, 29.3]
-50.6 [23.9, 53.2]
-95.2% [44.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>52.2
-3.0 [0.0, 29.2]
-49.2 [23.1, 52.2]
-94.2% [44.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>114.1
-5.0 [0.0, 52.9]
-109.0 [61.2, 114.1]
-95.6% [53.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>111.7
-3.3 [0.0, 37.0]
-108.4 [74.7, 111.7]
-97.1% [66.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>110.7
-3.8 [0.0, 37.2]
-106.9 [73.5, 110.7]
-96.6% [66.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>172.9
-6.0 [0.0, 63.9]
-166.9 [109.0, 172.9]
-96.6% [63.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>170.5
-4.2 [0.0, 50.3]
-166.3 [120.2, 170.5]
-97.5% [70.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>169.5
-4.9 [0.0, 50.8]
-164.6 [118.7, 169.5]
-97.1% [70.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>223.4
-7.9 [0.0, 109.9]
-215.5 [113.4, 223.4]
-96.5% [50.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>221.0
-6.2 [0.0, 99.4]
-214.8 [121.5, 221.0]
-97.2% [55.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>220.0
-7.3 [0.0, 101.8]
-212.7 [118.2, 220.0]
-96.7% [53.7%, 100.0%]</t>
-  </si>
-  <si>
     <t>3.9
 1.1 [0.0, 19.2]
 2.7 [-15.4, 3.9]
@@ -897,166 +441,10 @@
 65.6% [23.7%, 100.0%]</t>
   </si>
   <si>
-    <t>11.8
-5.6 [0.0, 30.3]
-6.2 [-18.4, 11.8]
-52.3% [-155.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>49.3
-10.9 [0.0, 51.3]
-38.5 [-2.0, 49.3]
-78.0% [-4.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>37.5
-36.6 [0.0, 84.2]
-0.9 [-46.7, 37.5]
-2.5% [-124.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>107.8
-14.2 [0.0, 63.8]
-93.6 [44.0, 107.8]
-86.8% [40.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>96.0
-65.0 [3.9, 141.7]
-31.0 [-45.7, 92.1]
-32.3% [-47.6%, 95.9%]</t>
-  </si>
-  <si>
-    <t>166.6
-16.7 [0.0, 72.3]
-149.9 [94.3, 166.6]
-90.0% [56.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>154.8
-88.0 [10.6, 189.0]
-66.8 [-34.2, 144.2]
-43.2% [-22.1%, 93.2%]</t>
-  </si>
-  <si>
-    <t>217.1
-20.2 [0.0, 87.4]
-196.9 [129.7, 217.1]
-90.7% [59.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>205.3
-121.3 [17.6, 269.0]
-83.9 [-63.7, 187.6]
-40.9% [-31.0%, 91.4%]</t>
-  </si>
-  <si>
-    <t>11.8
-4.1 [0.0, 21.8]
-7.7 [-10.0, 11.8]
-65.5% [-84.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>49.3
-7.3 [0.0, 34.0]
-42.1 [15.3, 49.3]
-85.3% [31.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>37.5
-22.3 [0.0, 51.6]
-15.2 [-14.1, 37.5]
-40.6% [-37.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>107.8
-10.4 [0.0, 47.5]
-97.4 [60.4, 107.8]
-90.3% [56.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>96.0
-49.2 [2.9, 108.1]
-46.8 [-12.1, 93.1]
-48.8% [-12.6%, 97.0%]</t>
-  </si>
-  <si>
-    <t>166.6
-14.6 [0.0, 68.4]
-152.0 [98.2, 166.6]
-91.2% [59.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>154.8
-88.6 [8.4, 198.0]
-66.2 [-43.2, 146.4]
-42.8% [-27.9%, 94.6%]</t>
-  </si>
-  <si>
-    <t>217.1
-25.1 [0.0, 139.8]
-192.0 [77.3, 217.1]
-88.5% [35.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>205.3
-186.6 [2.7, 473.6]
-18.6 [-268.3, 202.6]
-9.1% [-130.7%, 98.7%]</t>
-  </si>
-  <si>
-    <t>11.8
-3.4 [0.0, 18.1]
-8.5 [-6.3, 11.8]
-71.5% [-53.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>49.3
-5.6 [0.0, 26.0]
-43.8 [23.4, 49.3]
-88.7% [47.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>37.5
-15.4 [0.0, 35.7]
-22.1 [1.8, 37.5]
-58.9% [4.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>107.8
-6.4 [0.0, 28.3]
-101.4 [79.6, 107.8]
-94.1% [73.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>96.0
-22.2 [0.5, 48.7]
-73.7 [47.3, 95.5]
-76.8% [49.3%, 99.5%]</t>
-  </si>
-  <si>
-    <t>166.6
-7.3 [0.0, 31.0]
-159.4 [135.6, 166.6]
-95.6% [81.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>154.8
-30.3 [2.9, 64.8]
-124.5 [90.0, 151.9]
-80.4% [58.1%, 98.1%]</t>
-  </si>
-  <si>
     <t>217.1
 9.0 [0.0, 38.2]
 208.1 [178.9, 217.1]
 95.9% [82.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>205.3
-46.5 [6.0, 104.4]
-158.8 [100.8, 199.3]
-77.3% [49.1%, 97.1%]</t>
   </si>
   <si>
     <r>
@@ -1106,6 +494,618 @@
       </rPr>
       <t xml:space="preserve"> Predicted total death counts, deaths averted and % reduction with corresponding 95% credible intervals understrong lockdown and moderate CFR (in thousands)</t>
     </r>
+  </si>
+  <si>
+    <t>6.3
+2.3 [0.0, 27.1]
+4.0 [-20.9, 6.3]
+63.7% [-334.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.9
+1.5 [0.0, 19.6]
+2.4 [-15.7, 3.9]
+62.4% [-407.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+1.4 [0.0, 17.7]
+1.5 [-14.8, 2.9]
+50.9% [-507.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+3.2 [0.0, 36.2]
+14.9 [-18.1, 18.1]
+82.4% [-100.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+2.6 [0.0, 30.8]
+13.1 [-15.1, 15.7]
+83.4% [-96.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+3.0 [0.0, 30.2]
+11.7 [-15.5, 14.7]
+79.6% [-105.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>11.8
+5.6 [0.0, 30.3]
+6.2 [-18.4, 11.8]
+52.6% [-155.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>55.6
+4.2 [0.0, 47.5]
+51.4 [8.1, 55.6]
+92.5% [14.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+3.7 [0.0, 42.8]
+49.5 [10.4, 53.2]
+93.1% [19.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+4.4 [0.0, 43.2]
+47.9 [9.0, 52.2]
+91.7% [17.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+10.8 [0.0, 51.6]
+38.5 [-2.2, 49.3]
+78.1% [-4.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+36.6 [0.0, 84.1]
+0.9 [-46.6, 37.5]
+2.4% [-124.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>114.1
+4.8 [0.0, 53.8]
+109.2 [60.3, 114.1]
+95.8% [52.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+4.3 [0.0, 49.2]
+107.3 [62.5, 111.7]
+96.1% [55.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+14.2 [0.0, 63.9]
+93.6 [43.9, 107.8]
+86.9% [40.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+65.0 [4.0, 140.9]
+31.0 [-44.9, 92.0]
+32.3% [-46.8%, 95.9%]</t>
+  </si>
+  <si>
+    <t>172.9
+5.4 [0.0, 58.2]
+167.5 [114.7, 172.9]
+96.9% [66.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+4.9 [0.0, 53.6]
+165.6 [116.9, 170.5]
+97.2% [68.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+5.8 [0.0, 54.6]
+163.7 [115.0, 169.5]
+96.6% [67.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>166.6
+16.7 [0.0, 72.5]
+150.0 [94.1, 166.6]
+90.0% [56.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+88.0 [10.5, 188.8]
+66.8 [-34.0, 144.2]
+43.2% [-22.0%, 93.2%]</t>
+  </si>
+  <si>
+    <t>223.4
+6.0 [0.0, 65.9]
+217.3 [157.4, 223.4]
+97.3% [70.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+5.5 [0.0, 60.9]
+215.5 [160.0, 221.0]
+97.5% [72.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+6.7 [0.0, 62.2]
+213.3 [157.8, 220.0]
+97.0% [71.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>217.1
+20.3 [0.0, 87.4]
+196.8 [129.7, 217.1]
+90.7% [59.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+121.3 [17.7, 270.0]
+84.0 [-64.7, 187.6]
+40.9% [-31.5%, 91.4%]</t>
+  </si>
+  <si>
+    <t>6.3
+1.0 [0.0, 12.2]
+5.3 [-6.0, 6.3]
+84.5% [-95.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.9
+0.7 [0.0, 10.0]
+3.1 [-6.2, 3.9]
+80.9% [-160.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+0.7 [0.0, 9.3]
+2.2 [-6.3, 2.9]
+74.3% [-218.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+1.5 [0.0, 18.7]
+16.6 [-0.6, 18.1]
+91.6% [-3.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+1.4 [0.0, 17.3]
+14.3 [-1.6, 15.7]
+90.9% [-10.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+1.7 [0.0, 17.2]
+13.1 [-2.5, 14.7]
+88.6% [-16.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>11.8
+3.4 [0.0, 18.1]
+8.5 [-6.3, 11.8]
+71.7% [-53.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>55.6
+1.9 [0.0, 22.8]
+53.7 [32.8, 55.6]
+96.5% [59.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+1.9 [0.0, 21.6]
+51.3 [31.6, 53.2]
+96.5% [59.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+2.3 [0.0, 21.8]
+50.0 [30.4, 52.2]
+95.7% [58.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+5.6 [0.0, 26.1]
+43.8 [23.3, 49.3]
+88.7% [47.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+15.4 [0.0, 35.7]
+22.1 [1.8, 37.5]
+58.9% [4.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>114.1
+2.1 [0.0, 23.8]
+112.0 [90.3, 114.1]
+98.2% [79.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+2.0 [0.0, 22.5]
+109.6 [89.2, 111.7]
+98.2% [79.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>110.7
+2.5 [0.0, 22.9]
+108.3 [87.9, 110.7]
+97.8% [79.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+6.4 [0.0, 28.4]
+101.5 [79.4, 107.8]
+94.1% [73.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+22.2 [0.5, 48.5]
+73.8 [47.4, 95.5]
+76.8% [49.4%, 99.5%]</t>
+  </si>
+  <si>
+    <t>172.9
+2.3 [0.0, 25.2]
+170.6 [147.7, 172.9]
+98.7% [85.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+2.2 [0.0, 23.8]
+168.3 [146.6, 170.5]
+98.7% [86.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+2.7 [0.0, 24.2]
+166.9 [145.4, 169.5]
+98.4% [85.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>166.6
+7.2 [0.0, 31.1]
+159.4 [135.5, 166.6]
+95.7% [81.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+30.3 [2.9, 64.8]
+124.5 [90.0, 151.9]
+80.4% [58.2%, 98.2%]</t>
+  </si>
+  <si>
+    <t>223.4
+2.6 [0.0, 29.0]
+220.7 [194.4, 223.4]
+98.8% [87.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+2.5 [0.0, 27.4]
+218.4 [193.6, 221.0]
+98.9% [87.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+3.1 [0.0, 28.1]
+216.9 [191.9, 220.0]
+98.6% [87.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+46.5 [6.1, 104.5]
+158.8 [100.7, 199.2]
+77.3% [49.1%, 97.1%]</t>
+  </si>
+  <si>
+    <t>6.3
+3.2 [0.0, 38.6]
+3.1 [-32.3, 6.3]
+49.6% [-517.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.9
+1.1 [0.0, 15.0]
+2.7 [-11.1, 3.9]
+71.0% [-287.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+1.0 [0.0, 12.9]
+1.9 [-10.0, 2.9]
+64.0% [-345.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+3.8 [0.0, 42.7]
+14.3 [-24.6, 18.1]
+78.9% [-135.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+2.0 [0.0, 22.8]
+13.7 [-7.1, 15.7]
+87.5% [-45.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+2.2 [0.0, 22.1]
+12.5 [-7.3, 14.7]
+85.1% [-49.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>11.8
+4.1 [0.0, 21.8]
+7.8 [-10.0, 11.8]
+65.7% [-84.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>55.6
+4.4 [0.0, 47.4]
+51.2 [8.2, 55.6]
+92.0% [14.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+2.6 [0.0, 29.5]
+50.6 [23.7, 53.2]
+95.1% [44.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+3.0 [0.0, 29.3]
+49.2 [22.9, 52.2]
+94.2% [43.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+7.2 [0.0, 34.2]
+42.1 [15.2, 49.3]
+85.4% [30.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+22.3 [0.0, 51.5]
+15.2 [-14.0, 37.5]
+40.5% [-37.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>114.1
+5.0 [0.0, 52.9]
+109.0 [61.1, 114.1]
+95.6% [53.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+3.2 [0.0, 37.0]
+108.4 [74.7, 111.7]
+97.1% [66.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>110.7
+3.8 [0.0, 37.3]
+106.9 [73.5, 110.7]
+96.6% [66.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+10.4 [0.0, 47.4]
+97.4 [60.4, 107.8]
+90.4% [56.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+49.2 [2.9, 107.6]
+46.8 [-11.6, 93.1]
+48.8% [-12.1%, 97.0%]</t>
+  </si>
+  <si>
+    <t>172.9
+6.0 [0.0, 63.7]
+166.9 [109.2, 172.9]
+96.6% [63.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+4.1 [0.0, 50.3]
+166.4 [120.2, 170.5]
+97.6% [70.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+4.9 [0.0, 51.3]
+164.6 [118.3, 169.5]
+97.1% [69.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>166.6
+14.6 [0.0, 68.4]
+152.0 [98.2, 166.6]
+91.2% [58.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+88.6 [8.6, 198.2]
+66.2 [-43.5, 146.2]
+42.8% [-28.1%, 94.5%]</t>
+  </si>
+  <si>
+    <t>223.4
+7.9 [0.0, 109.5]
+215.5 [113.9, 223.4]
+96.5% [51.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+5.9 [0.0, 99.7]
+215.1 [121.3, 221.0]
+97.3% [54.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+7.4 [0.0, 102.1]
+212.6 [117.9, 220.0]
+96.6% [53.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>217.1
+25.2 [0.0, 140.1]
+191.9 [77.0, 217.1]
+88.4% [35.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+186.6 [3.0, 474.8]
+18.7 [-269.5, 202.2]
+9.1% [-131.3%, 98.5%]</t>
+  </si>
+  <si>
+    <t>1.2
+0.2 [0.0, 2.8]
+0.9 [-1.7, 1.2]
+79.2% [-142.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>0.8
+0.1 [0.0, 1.9]
+0.7 [-1.1, 0.8]
+82.3% [-135.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>0.6
+0.1 [0.0, 1.6]
+0.5 [-1.0, 0.6]
+78.7% [-163.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.3
+0.3 [0.0, 3.4]
+3.0 [-0.1, 3.3]
+90.5% [-3.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+0.2 [0.0, 2.6]
+2.7 [0.3, 2.9]
+92.2% [10.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.7
+0.2 [0.0, 2.5]
+2.5 [0.3, 2.7]
+90.9% [9.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.1
+0.4 [0.0, 2.4]
+1.7 [-0.2, 2.1]
+79.5% [-10.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>8.2
+0.4 [0.0, 3.9]
+7.8 [4.3, 8.2]
+95.4% [52.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>7.8
+0.3 [0.0, 3.2]
+7.5 [4.6, 7.8]
+96.2% [58.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>7.6
+0.3 [0.0, 3.1]
+7.3 [4.5, 7.6]
+95.6% [58.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>7.0
+0.8 [0.0, 3.5]
+6.3 [3.5, 7.0]
+89.3% [49.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>13.7
+0.4 [0.0, 4.4]
+13.3 [9.3, 13.7]
+96.9% [68.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>12.5
+1.0 [0.0, 4.5]
+11.5 [8.0, 12.5]
+91.9% [64.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>10.4
+4.4 [0.3, 9.6]
+6.0 [0.8, 10.1]
+57.8% [8.1%, 97.3%]</t>
+  </si>
+  <si>
+    <t>17.1
+0.5 [0.0, 4.8]
+16.6 [12.2, 17.1]
+97.2% [71.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>16.7
+0.4 [0.0, 4.2]
+16.3 [12.5, 16.7]
+97.6% [75.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>16.5
+0.5 [0.0, 4.2]
+16.0 [12.3, 16.5]
+97.2% [74.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.9
+1.2 [0.0, 5.4]
+14.7 [10.5, 15.9]
+92.2% [66.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>13.8
+6.5 [0.8, 14.2]
+7.2 [-0.4, 13.0]
+52.6% [-3.0%, 94.4%]</t>
+  </si>
+  <si>
+    <t>18.3
+0.4 [0.0, 4.6]
+17.8 [13.7, 18.3]
+97.6% [74.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+0.5 [0.0, 4.7]
+17.6 [13.4, 18.1]
+97.2% [74.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>17.5
+1.5 [0.0, 6.4]
+16.0 [11.1, 17.5]
+91.5% [63.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.3
+8.9 [1.3, 19.9]
+6.5 [-4.6, 14.1]
+42.2% [-29.9%, 91.6%]</t>
   </si>
 </sst>
 </file>
@@ -1621,6 +1621,27 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1636,41 +1657,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1995,7 +1995,7 @@
   <dimension ref="C2:K14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D4" sqref="D4:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2021,15 +2021,15 @@
     </row>
     <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="18"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="19"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
@@ -2039,16 +2039,16 @@
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
@@ -2069,10 +2069,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K6" s="19"/>
     </row>
@@ -2085,19 +2085,19 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -2110,19 +2110,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K8" s="19"/>
     </row>
@@ -2135,19 +2135,19 @@
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="48" t="s">
         <v>18</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>35</v>
       </c>
       <c r="K9" s="19"/>
     </row>
@@ -2160,19 +2160,19 @@
         <v>4</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -2185,19 +2185,19 @@
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -2210,33 +2210,33 @@
         <v>4</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="3:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C13" s="18"/>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2264,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E3A7A1-1E39-724C-B640-902CB4BEED4C}">
   <dimension ref="C4:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:J43"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2291,15 +2291,15 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" s="18"/>
-      <c r="D6" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+      <c r="D6" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
@@ -2309,16 +2309,16 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="38" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
@@ -2339,10 +2339,10 @@
         <v>10</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K8" s="19"/>
     </row>
@@ -2355,19 +2355,19 @@
         <v>4</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>32</v>
+        <v>73</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>17</v>
       </c>
       <c r="K9" s="19"/>
     </row>
@@ -2380,19 +2380,19 @@
         <v>4</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" s="74" t="s">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>17</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -2405,19 +2405,19 @@
         <v>4</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="72" t="s">
-        <v>145</v>
+        <v>80</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>82</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -2430,19 +2430,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" s="74" t="s">
-        <v>147</v>
+        <v>45</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -2455,19 +2455,19 @@
         <v>4</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="J13" s="72" t="s">
-        <v>149</v>
+        <v>89</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -2480,33 +2480,33 @@
         <v>4</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" s="77" t="s">
-        <v>151</v>
+        <v>94</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>96</v>
       </c>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="3:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C15" s="18"/>
-      <c r="D15" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
+      <c r="D15" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2534,15 +2534,15 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
-      <c r="D20" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
+      <c r="D20" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
@@ -2552,16 +2552,16 @@
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="38" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G21" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.2">
@@ -2582,10 +2582,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K22" s="19"/>
     </row>
@@ -2598,19 +2598,19 @@
         <v>4</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="71" t="s">
-        <v>32</v>
+        <v>99</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>17</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -2623,19 +2623,19 @@
         <v>4</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" s="74" t="s">
-        <v>32</v>
+        <v>102</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="64" t="s">
+        <v>17</v>
       </c>
       <c r="K24" s="19"/>
     </row>
@@ -2648,19 +2648,19 @@
         <v>4</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" s="73" t="s">
-        <v>163</v>
+        <v>106</v>
+      </c>
+      <c r="I25" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>108</v>
       </c>
       <c r="K25" s="19"/>
     </row>
@@ -2673,19 +2673,19 @@
         <v>4</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="75" t="s">
-        <v>165</v>
+        <v>111</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>113</v>
       </c>
       <c r="K26" s="19"/>
     </row>
@@ -2698,19 +2698,19 @@
         <v>4</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="J27" s="73" t="s">
-        <v>167</v>
+        <v>116</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="63" t="s">
+        <v>118</v>
       </c>
       <c r="K27" s="19"/>
     </row>
@@ -2723,33 +2723,33 @@
         <v>4</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="76" t="s">
-        <v>169</v>
+        <v>121</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="66" t="s">
+        <v>122</v>
       </c>
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="3:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C29" s="18"/>
-      <c r="D29" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
+      <c r="D29" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2777,15 +2777,15 @@
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C34" s="18"/>
-      <c r="D34" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
+      <c r="D34" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
       <c r="K34" s="19"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.2">
@@ -2795,16 +2795,16 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="38" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G35" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
       <c r="K35" s="19"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.2">
@@ -2825,10 +2825,10 @@
         <v>10</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J36" s="37" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K36" s="19"/>
     </row>
@@ -2841,19 +2841,19 @@
         <v>4</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="71" t="s">
-        <v>32</v>
+        <v>125</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>17</v>
       </c>
       <c r="K37" s="19"/>
     </row>
@@ -2866,19 +2866,19 @@
         <v>4</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="J38" s="74" t="s">
-        <v>32</v>
+        <v>128</v>
+      </c>
+      <c r="I38" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="64" t="s">
+        <v>17</v>
       </c>
       <c r="K38" s="19"/>
     </row>
@@ -2891,19 +2891,19 @@
         <v>4</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="I39" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="J39" s="72" t="s">
-        <v>154</v>
+        <v>132</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" s="62" t="s">
+        <v>134</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -2916,19 +2916,19 @@
         <v>4</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="J40" s="74" t="s">
-        <v>156</v>
+        <v>137</v>
+      </c>
+      <c r="I40" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" s="64" t="s">
+        <v>139</v>
       </c>
       <c r="K40" s="19"/>
     </row>
@@ -2941,19 +2941,19 @@
         <v>4</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="I41" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="J41" s="72" t="s">
-        <v>158</v>
+        <v>142</v>
+      </c>
+      <c r="I41" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="62" t="s">
+        <v>144</v>
       </c>
       <c r="K41" s="19"/>
     </row>
@@ -2966,33 +2966,33 @@
         <v>4</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I42" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="J42" s="77" t="s">
-        <v>160</v>
+        <v>147</v>
+      </c>
+      <c r="I42" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="J42" s="67" t="s">
+        <v>149</v>
       </c>
       <c r="K42" s="19"/>
     </row>
     <row r="43" spans="3:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C43" s="18"/>
-      <c r="D43" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
+      <c r="D43" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
       <c r="K43" s="19"/>
     </row>
     <row r="44" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3026,7 +3026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9C7BA-2307-9A4A-B352-2FB3768D84C5}">
   <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="F11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="L15" sqref="L15:Q24"/>
     </sheetView>
   </sheetViews>
@@ -3056,14 +3056,14 @@
     </row>
     <row r="3" spans="2:18" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="18"/>
-      <c r="C3" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="C3" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -3072,12 +3072,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="52"/>
-      <c r="E4" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
+      <c r="E4" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -3095,10 +3095,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I5" s="19"/>
     </row>
@@ -3111,16 +3111,16 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I6" s="19"/>
     </row>
@@ -3133,16 +3133,16 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I7" s="19"/>
     </row>
@@ -3155,16 +3155,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I8" s="19"/>
     </row>
@@ -3177,16 +3177,16 @@
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I9" s="19"/>
     </row>
@@ -3199,16 +3199,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -3221,29 +3221,29 @@
         <v>4</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="2:18" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3268,14 +3268,14 @@
     </row>
     <row r="15" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="18"/>
-      <c r="L15" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
+      <c r="L15" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
       <c r="R15" s="19"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -3284,12 +3284,12 @@
         <v>1</v>
       </c>
       <c r="M16" s="52"/>
-      <c r="N16" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
+      <c r="N16" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
       <c r="R16" s="19"/>
     </row>
     <row r="17" spans="11:18" x14ac:dyDescent="0.2">
@@ -3307,10 +3307,10 @@
         <v>10</v>
       </c>
       <c r="P17" s="59" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="59" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="R17" s="19"/>
     </row>
@@ -3323,16 +3323,16 @@
         <v>4</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="O18" s="42" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="P18" s="42" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="42" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R18" s="19"/>
     </row>
@@ -3345,16 +3345,16 @@
         <v>4</v>
       </c>
       <c r="N19" s="60" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="O19" s="49" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="P19" s="49" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="47" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R19" s="19"/>
     </row>
@@ -3367,16 +3367,16 @@
         <v>4</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="P20" s="43" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="48" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="R20" s="19"/>
     </row>
@@ -3389,16 +3389,16 @@
         <v>4</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="O21" s="44" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="P21" s="44" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="49" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="R21" s="19"/>
     </row>
@@ -3411,16 +3411,16 @@
         <v>4</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="P22" s="43" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="43" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="R22" s="19"/>
     </row>
@@ -3433,29 +3433,29 @@
         <v>4</v>
       </c>
       <c r="N23" s="57" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="O23" s="50" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="P23" s="50" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="50" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="R23" s="19"/>
     </row>
     <row r="24" spans="11:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="K24" s="18"/>
-      <c r="L24" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
+      <c r="L24" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
       <c r="R24" s="19"/>
     </row>
     <row r="25" spans="11:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/tables_new.xlsx
+++ b/tables_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsalvatore/Documents/projects/covid/science_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89D016A-FF99-224A-8C23-F5547B61E556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866C5583-AC87-2A41-8650-AF088525C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{0A08B8D6-85B0-5848-BC12-55277B05860A}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="22040" windowHeight="14340" activeTab="2" xr2:uid="{0A08B8D6-85B0-5848-BC12-55277B05860A}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="176">
   <si>
     <t>Table 2. Predicted total case counts, cases averted and % reduction with corresponding 95% credible intervals under different lockdown interventions (in millions)</t>
   </si>
@@ -309,144 +309,6 @@
     </r>
   </si>
   <si>
-    <t>110.7
-5.2 [0.0, 49.9]
-105.5 [60.8, 110.7]
-95.3% [54.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>3.9
-1.1 [0.0, 19.2]
-2.7 [-15.4, 3.9]
-70.7% [-397.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>2.9
-1.3 [0.0, 17.4]
-1.7 [-14.5, 2.9]
-56.8% [-499.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>15.7
-1.8 [0.0, 29.4]
-13.9 [-13.7, 15.7]
-88.6% [-87.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>14.7
-2.4 [0.0, 29.2]
-12.4 [-14.4, 14.7]
-83.8% [-98.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>11.8
-4.6 [0.0, 28.6]
-7.2 [-16.7, 11.8]
-60.7% [-141.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>53.2
-2.3 [0.0, 40.4]
-50.9 [12.8, 53.2]
-95.8% [24.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>52.2
-3.2 [0.0, 41.1]
-49.1 [11.2, 52.2]
-93.9% [21.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>49.3
-8.1 [0.0, 46.3]
-41.3 [3.0, 49.3]
-83.6% [6.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>37.5
-30.2 [0.0, 71.9]
-7.4 [-34.4, 37.5]
-19.6% [-91.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>111.7
-2.5 [0.0, 46.0]
-109.1 [65.6, 111.7]
-97.7% [58.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>110.7
-3.6 [0.0, 47.3]
-107.1 [63.4, 110.7]
-96.7% [57.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>107.8
-9.9 [0.0, 55.3]
-97.9 [52.5, 107.8]
-90.8% [48.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>96.0
-48.2 [0.0, 107.5]
-47.8 [-11.5, 96.0]
-49.8% [-12.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>170.5
-2.7 [0.0, 49.6]
-167.8 [120.9, 170.5]
-98.4% [70.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>169.5
-3.9 [0.0, 51.1]
-165.6 [118.5, 169.5]
-97.7% [69.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>166.6
-11.0 [0.0, 60.6]
-155.6 [106.0, 166.6]
-93.4% [63.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>154.8
-59.0 [0.0, 128.7]
-95.8 [26.1, 154.8]
-61.9% [16.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>221.0
-2.8 [0.0, 55.8]
-218.1 [165.2, 221.0]
-98.7% [74.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>220.0
-4.2 [0.0, 57.8]
-215.8 [162.2, 220.0]
-98.1% [73.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>217.1
-12.2 [0.0, 69.3]
-204.9 [147.8, 217.1]
-94.4% [68.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>205.3
-70.6 [0.0, 156.6]
-134.6 [48.6, 205.3]
-65.6% [23.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>217.1
-9.0 [0.0, 38.2]
-208.1 [178.9, 217.1]
-95.9% [82.4%, 100.0%]</t>
-  </si>
-  <si>
     <r>
       <t>Table 4</t>
     </r>
@@ -496,480 +358,12 @@
     </r>
   </si>
   <si>
-    <t>6.3
-2.3 [0.0, 27.1]
-4.0 [-20.9, 6.3]
-63.7% [-334.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>3.9
-1.5 [0.0, 19.6]
-2.4 [-15.7, 3.9]
-62.4% [-407.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>2.9
-1.4 [0.0, 17.7]
-1.5 [-14.8, 2.9]
-50.9% [-507.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>18.1
-3.2 [0.0, 36.2]
-14.9 [-18.1, 18.1]
-82.4% [-100.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>15.7
-2.6 [0.0, 30.8]
-13.1 [-15.1, 15.7]
-83.4% [-96.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>14.7
-3.0 [0.0, 30.2]
-11.7 [-15.5, 14.7]
-79.6% [-105.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>11.8
-5.6 [0.0, 30.3]
-6.2 [-18.4, 11.8]
-52.6% [-155.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>55.6
-4.2 [0.0, 47.5]
-51.4 [8.1, 55.6]
-92.5% [14.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>53.2
-3.7 [0.0, 42.8]
-49.5 [10.4, 53.2]
-93.1% [19.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>52.2
-4.4 [0.0, 43.2]
-47.9 [9.0, 52.2]
-91.7% [17.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>49.3
-10.8 [0.0, 51.6]
-38.5 [-2.2, 49.3]
-78.1% [-4.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>37.5
-36.6 [0.0, 84.1]
-0.9 [-46.6, 37.5]
-2.4% [-124.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>114.1
-4.8 [0.0, 53.8]
-109.2 [60.3, 114.1]
-95.8% [52.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>111.7
-4.3 [0.0, 49.2]
-107.3 [62.5, 111.7]
-96.1% [55.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>107.8
-14.2 [0.0, 63.9]
-93.6 [43.9, 107.8]
-86.9% [40.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>96.0
-65.0 [4.0, 140.9]
-31.0 [-44.9, 92.0]
-32.3% [-46.8%, 95.9%]</t>
-  </si>
-  <si>
     <t>172.9
 5.4 [0.0, 58.2]
 167.5 [114.7, 172.9]
 96.9% [66.3%, 100.0%]</t>
   </si>
   <si>
-    <t>170.5
-4.9 [0.0, 53.6]
-165.6 [116.9, 170.5]
-97.2% [68.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>169.5
-5.8 [0.0, 54.6]
-163.7 [115.0, 169.5]
-96.6% [67.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>166.6
-16.7 [0.0, 72.5]
-150.0 [94.1, 166.6]
-90.0% [56.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>154.8
-88.0 [10.5, 188.8]
-66.8 [-34.0, 144.2]
-43.2% [-22.0%, 93.2%]</t>
-  </si>
-  <si>
-    <t>223.4
-6.0 [0.0, 65.9]
-217.3 [157.4, 223.4]
-97.3% [70.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>221.0
-5.5 [0.0, 60.9]
-215.5 [160.0, 221.0]
-97.5% [72.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>220.0
-6.7 [0.0, 62.2]
-213.3 [157.8, 220.0]
-97.0% [71.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>217.1
-20.3 [0.0, 87.4]
-196.8 [129.7, 217.1]
-90.7% [59.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>205.3
-121.3 [17.7, 270.0]
-84.0 [-64.7, 187.6]
-40.9% [-31.5%, 91.4%]</t>
-  </si>
-  <si>
-    <t>6.3
-1.0 [0.0, 12.2]
-5.3 [-6.0, 6.3]
-84.5% [-95.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>3.9
-0.7 [0.0, 10.0]
-3.1 [-6.2, 3.9]
-80.9% [-160.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>2.9
-0.7 [0.0, 9.3]
-2.2 [-6.3, 2.9]
-74.3% [-218.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>18.1
-1.5 [0.0, 18.7]
-16.6 [-0.6, 18.1]
-91.6% [-3.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>15.7
-1.4 [0.0, 17.3]
-14.3 [-1.6, 15.7]
-90.9% [-10.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>14.7
-1.7 [0.0, 17.2]
-13.1 [-2.5, 14.7]
-88.6% [-16.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>11.8
-3.4 [0.0, 18.1]
-8.5 [-6.3, 11.8]
-71.7% [-53.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>55.6
-1.9 [0.0, 22.8]
-53.7 [32.8, 55.6]
-96.5% [59.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>53.2
-1.9 [0.0, 21.6]
-51.3 [31.6, 53.2]
-96.5% [59.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>52.2
-2.3 [0.0, 21.8]
-50.0 [30.4, 52.2]
-95.7% [58.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>49.3
-5.6 [0.0, 26.1]
-43.8 [23.3, 49.3]
-88.7% [47.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>37.5
-15.4 [0.0, 35.7]
-22.1 [1.8, 37.5]
-58.9% [4.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>114.1
-2.1 [0.0, 23.8]
-112.0 [90.3, 114.1]
-98.2% [79.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>111.7
-2.0 [0.0, 22.5]
-109.6 [89.2, 111.7]
-98.2% [79.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>110.7
-2.5 [0.0, 22.9]
-108.3 [87.9, 110.7]
-97.8% [79.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>107.8
-6.4 [0.0, 28.4]
-101.5 [79.4, 107.8]
-94.1% [73.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>96.0
-22.2 [0.5, 48.5]
-73.8 [47.4, 95.5]
-76.8% [49.4%, 99.5%]</t>
-  </si>
-  <si>
-    <t>172.9
-2.3 [0.0, 25.2]
-170.6 [147.7, 172.9]
-98.7% [85.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>170.5
-2.2 [0.0, 23.8]
-168.3 [146.6, 170.5]
-98.7% [86.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>169.5
-2.7 [0.0, 24.2]
-166.9 [145.4, 169.5]
-98.4% [85.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>166.6
-7.2 [0.0, 31.1]
-159.4 [135.5, 166.6]
-95.7% [81.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>154.8
-30.3 [2.9, 64.8]
-124.5 [90.0, 151.9]
-80.4% [58.2%, 98.2%]</t>
-  </si>
-  <si>
-    <t>223.4
-2.6 [0.0, 29.0]
-220.7 [194.4, 223.4]
-98.8% [87.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>221.0
-2.5 [0.0, 27.4]
-218.4 [193.6, 221.0]
-98.9% [87.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>220.0
-3.1 [0.0, 28.1]
-216.9 [191.9, 220.0]
-98.6% [87.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>205.3
-46.5 [6.1, 104.5]
-158.8 [100.7, 199.2]
-77.3% [49.1%, 97.1%]</t>
-  </si>
-  <si>
-    <t>6.3
-3.2 [0.0, 38.6]
-3.1 [-32.3, 6.3]
-49.6% [-517.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>3.9
-1.1 [0.0, 15.0]
-2.7 [-11.1, 3.9]
-71.0% [-287.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>2.9
-1.0 [0.0, 12.9]
-1.9 [-10.0, 2.9]
-64.0% [-345.1%, 100.0%]</t>
-  </si>
-  <si>
-    <t>18.1
-3.8 [0.0, 42.7]
-14.3 [-24.6, 18.1]
-78.9% [-135.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>15.7
-2.0 [0.0, 22.8]
-13.7 [-7.1, 15.7]
-87.5% [-45.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>14.7
-2.2 [0.0, 22.1]
-12.5 [-7.3, 14.7]
-85.1% [-49.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>11.8
-4.1 [0.0, 21.8]
-7.8 [-10.0, 11.8]
-65.7% [-84.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>55.6
-4.4 [0.0, 47.4]
-51.2 [8.2, 55.6]
-92.0% [14.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>53.2
-2.6 [0.0, 29.5]
-50.6 [23.7, 53.2]
-95.1% [44.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>52.2
-3.0 [0.0, 29.3]
-49.2 [22.9, 52.2]
-94.2% [43.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>49.3
-7.2 [0.0, 34.2]
-42.1 [15.2, 49.3]
-85.4% [30.7%, 100.0%]</t>
-  </si>
-  <si>
-    <t>37.5
-22.3 [0.0, 51.5]
-15.2 [-14.0, 37.5]
-40.5% [-37.4%, 100.0%]</t>
-  </si>
-  <si>
-    <t>114.1
-5.0 [0.0, 52.9]
-109.0 [61.1, 114.1]
-95.6% [53.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>111.7
-3.2 [0.0, 37.0]
-108.4 [74.7, 111.7]
-97.1% [66.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>110.7
-3.8 [0.0, 37.3]
-106.9 [73.5, 110.7]
-96.6% [66.3%, 100.0%]</t>
-  </si>
-  <si>
-    <t>107.8
-10.4 [0.0, 47.4]
-97.4 [60.4, 107.8]
-90.4% [56.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>96.0
-49.2 [2.9, 107.6]
-46.8 [-11.6, 93.1]
-48.8% [-12.1%, 97.0%]</t>
-  </si>
-  <si>
-    <t>172.9
-6.0 [0.0, 63.7]
-166.9 [109.2, 172.9]
-96.6% [63.2%, 100.0%]</t>
-  </si>
-  <si>
-    <t>170.5
-4.1 [0.0, 50.3]
-166.4 [120.2, 170.5]
-97.6% [70.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>169.5
-4.9 [0.0, 51.3]
-164.6 [118.3, 169.5]
-97.1% [69.8%, 100.0%]</t>
-  </si>
-  <si>
-    <t>166.6
-14.6 [0.0, 68.4]
-152.0 [98.2, 166.6]
-91.2% [58.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>154.8
-88.6 [8.6, 198.2]
-66.2 [-43.5, 146.2]
-42.8% [-28.1%, 94.5%]</t>
-  </si>
-  <si>
-    <t>223.4
-7.9 [0.0, 109.5]
-215.5 [113.9, 223.4]
-96.5% [51.0%, 100.0%]</t>
-  </si>
-  <si>
-    <t>221.0
-5.9 [0.0, 99.7]
-215.1 [121.3, 221.0]
-97.3% [54.9%, 100.0%]</t>
-  </si>
-  <si>
-    <t>220.0
-7.4 [0.0, 102.1]
-212.6 [117.9, 220.0]
-96.6% [53.6%, 100.0%]</t>
-  </si>
-  <si>
-    <t>217.1
-25.2 [0.0, 140.1]
-191.9 [77.0, 217.1]
-88.4% [35.5%, 100.0%]</t>
-  </si>
-  <si>
-    <t>205.3
-186.6 [3.0, 474.8]
-18.7 [-269.5, 202.2]
-9.1% [-131.3%, 98.5%]</t>
-  </si>
-  <si>
     <t>1.2
 0.2 [0.0, 2.8]
 0.9 [-1.7, 1.2]
@@ -1106,13 +500,628 @@
 8.9 [1.3, 19.9]
 6.5 [-4.6, 14.1]
 42.2% [-29.9%, 91.6%]</t>
+  </si>
+  <si>
+    <t>6.3
+2.3 [0.0, 27.4]
+4.0 [-21.2, 6.3]
+63.3% [-338.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.9
+1.5 [0.0, 20.2]
+2.4 [-16.3, 3.9]
+61.0% [-422.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+1.4 [0.0, 17.8]
+1.5 [-14.9, 2.9]
+50.5% [-512.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+3.3 [0.0, 37.5]
+14.8 [-19.4, 18.1]
+81.9% [-107.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+2.7 [0.0, 32.4]
+13.0 [-16.7, 15.7]
+82.6% [-106.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+3.1 [0.0, 31.6]
+11.6 [-16.9, 14.7]
+78.8% [-114.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>11.8
+6.0 [0.0, 32.3]
+5.9 [-20.5, 11.8]
+49.5% [-173.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>55.6
+4.2 [0.0, 48.2]
+51.3 [7.4, 55.6]
+92.4% [13.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+3.8 [0.0, 43.7]
+49.4 [9.5, 53.2]
+92.9% [17.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+4.5 [0.0, 43.8]
+47.8 [8.4, 52.2]
+91.5% [16.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+11.1 [0.0, 52.6]
+38.2 [-3.2, 49.3]
+77.5% [-6.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+36.0 [0.0, 82.9]
+1.5 [-45.4, 37.5]
+4.0% [-121.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>114.1
+4.9 [0.0, 53.8]
+109.2 [60.2, 114.1]
+95.7% [52.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+4.4 [0.0, 49.5]
+107.3 [62.2, 111.7]
+96.0% [55.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>110.7
+5.2 [0.0, 50.0]
+105.5 [60.8, 110.7]
+95.3% [54.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+14.3 [0.0, 64.1]
+93.5 [43.7, 107.8]
+86.7% [40.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+63.0 [3.8, 136.6]
+33.0 [-40.6, 92.2]
+34.3% [-42.3%, 96.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+4.9 [0.0, 53.7]
+165.6 [116.8, 170.5]
+97.1% [68.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+5.9 [0.0, 54.4]
+163.7 [115.1, 169.5]
+96.5% [67.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>166.6
+16.7 [0.0, 72.4]
+149.9 [94.2, 166.6]
+89.9% [56.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+85.7 [10.2, 183.9]
+69.1 [-29.1, 144.6]
+44.6% [-18.8%, 93.4%]</t>
+  </si>
+  <si>
+    <t>223.4
+6.1 [0.0, 65.8]
+217.3 [157.6, 223.4]
+97.3% [70.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+5.6 [0.0, 60.7]
+215.4 [160.2, 221.0]
+97.5% [72.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+6.7 [0.0, 61.9]
+213.3 [158.1, 220.0]
+96.9% [71.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>217.1
+20.4 [0.0, 87.1]
+196.7 [130.0, 217.1]
+90.6% [59.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+119.3 [17.6, 265.3]
+86.0 [-60.1, 187.7]
+41.9% [-29.3%, 91.4%]</t>
+  </si>
+  <si>
+    <t>6.3
+1.0 [0.0, 13.1]
+5.2 [-6.9, 6.3]
+83.3% [-110.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.9
+0.8 [0.0, 10.9]
+3.1 [-7.1, 3.9]
+79.1% [-182.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+0.8 [0.0, 9.9]
+2.1 [-7.0, 2.9]
+72.7% [-239.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+1.6 [0.0, 19.7]
+16.5 [-1.6, 18.1]
+91.1% [-8.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+1.5 [0.0, 18.1]
+14.2 [-2.4, 15.7]
+90.3% [-15.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+1.8 [0.0, 17.9]
+13.0 [-3.2, 14.7]
+88.0% [-21.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>11.8
+3.5 [0.0, 18.6]
+8.4 [-6.8, 11.8]
+70.8% [-57.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>55.6
+2.0 [0.0, 22.9]
+53.6 [32.7, 55.6]
+96.5% [58.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+1.9 [0.0, 21.5]
+51.3 [31.7, 53.2]
+96.4% [59.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+2.3 [0.0, 21.6]
+50.0 [30.7, 52.2]
+95.7% [58.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+5.4 [0.0, 25.2]
+43.9 [24.1, 49.3]
+89.1% [48.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+13.6 [0.0, 31.6]
+23.9 [5.9, 37.5]
+63.7% [15.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>114.1
+2.1 [0.0, 23.7]
+112.0 [90.4, 114.1]
+98.1% [79.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+2.1 [0.0, 22.3]
+109.6 [89.4, 111.7]
+98.2% [80.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>110.7
+2.5 [0.0, 22.4]
+108.3 [88.3, 110.7]
+97.8% [79.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+6.1 [0.0, 27.3]
+101.7 [80.6, 107.8]
+94.3% [74.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+19.9 [0.5, 43.4]
+76.1 [52.6, 95.5]
+79.3% [54.8%, 99.5%]</t>
+  </si>
+  <si>
+    <t>172.9
+2.3 [0.0, 25.4]
+170.5 [147.5, 172.9]
+98.7% [85.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+2.3 [0.0, 24.0]
+168.2 [146.5, 170.5]
+98.7% [85.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+2.7 [0.0, 24.1]
+166.8 [145.4, 169.5]
+98.4% [85.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>166.6
+7.1 [0.0, 30.6]
+159.5 [136.0, 166.6]
+95.7% [81.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+29.2 [2.9, 62.7]
+125.6 [92.1, 151.9]
+81.2% [59.5%, 98.1%]</t>
+  </si>
+  <si>
+    <t>223.4
+2.7 [0.0, 29.5]
+220.7 [193.9, 223.4]
+98.8% [86.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+2.6 [0.0, 27.9]
+218.4 [193.1, 221.0]
+98.8% [87.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+3.1 [0.0, 28.3]
+216.9 [191.7, 220.0]
+98.6% [87.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>217.1
+9.0 [0.0, 38.3]
+208.1 [178.8, 217.1]
+95.9% [82.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+46.2 [5.8, 105.4]
+159.1 [99.8, 199.5]
+77.5% [48.6%, 97.2%]</t>
+  </si>
+  <si>
+    <t>6.3
+2.8 [0.0, 33.0]
+3.4 [-26.7, 6.3]
+55.1% [-427.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>3.9
+1.1 [0.0, 14.7]
+2.8 [-10.8, 3.9]
+71.7% [-280.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+1.0 [0.0, 13.0]
+1.9 [-10.1, 2.9]
+63.9% [-347.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>18.1
+3.5 [0.0, 37.5]
+14.6 [-19.4, 18.1]
+80.9% [-107.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+1.9 [0.0, 22.3]
+13.8 [-6.6, 15.7]
+87.8% [-42.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+2.2 [0.0, 21.7]
+12.6 [-7.0, 14.7]
+85.3% [-47.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>11.8
+4.0 [0.0, 21.6]
+7.8 [-9.8, 11.8]
+66.1% [-82.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>55.6
+4.1 [0.0, 43.0]
+51.5 [12.6, 55.6]
+92.6% [22.7%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+2.6 [0.0, 29.6]
+50.6 [23.6, 53.2]
+95.1% [44.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+3.1 [0.0, 29.7]
+49.2 [22.5, 52.2]
+94.2% [43.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+7.4 [0.0, 35.0]
+42.0 [14.3, 49.3]
+85.0% [29.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+23.8 [0.0, 54.7]
+13.7 [-17.2, 37.5]
+36.6% [-45.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>114.1
+4.7 [0.0, 49.8]
+109.3 [64.3, 114.1]
+95.8% [56.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+3.3 [0.0, 38.2]
+108.4 [73.5, 111.7]
+97.1% [65.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>110.7
+3.9 [0.0, 38.5]
+106.8 [72.2, 110.7]
+96.5% [65.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+10.7 [0.0, 49.4]
+97.1 [58.4, 107.8]
+90.0% [54.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+52.4 [3.1, 114.4]
+43.6 [-18.4, 92.9]
+45.4% [-19.2%, 96.8%]</t>
+  </si>
+  <si>
+    <t>172.9
+5.7 [0.0, 61.6]
+167.2 [111.3, 172.9]
+96.7% [64.4%, 100.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+4.2 [0.0, 51.5]
+166.3 [119.0, 170.5]
+97.6% [69.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+5.0 [0.0, 52.6]
+164.5 [116.9, 169.5]
+97.1% [69.0%, 100.0%]</t>
+  </si>
+  <si>
+    <t>166.6
+15.1 [0.0, 70.7]
+151.5 [96.0, 166.6]
+90.9% [57.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+92.7 [9.2, 206.7]
+62.1 [-52.0, 145.6]
+40.1% [-33.6%, 94.0%]</t>
+  </si>
+  <si>
+    <t>223.4
+8.2 [0.0, 117.0]
+215.1 [106.3, 223.4]
+96.3% [47.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+6.5 [0.0, 109.1]
+214.4 [111.8, 221.0]
+97.1% [50.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+8.2 [0.0, 112.0]
+211.9 [108.0, 220.0]
+96.3% [49.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>217.1
+28.4 [0.0, 156.0]
+188.7 [61.1, 217.1]
+86.9% [28.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+215.8 [6.3, 548.7]
+-10.6 [-343.5, 198.9]
+-5.1% [-167.3%, 96.9%]</t>
+  </si>
+  <si>
+    <t>Moderate PHI</t>
+  </si>
+  <si>
+    <t>Strengthened PHI</t>
+  </si>
+  <si>
+    <t>Moderate lockdown</t>
+  </si>
+  <si>
+    <t>3.9
+1.2 [0.0, 19.8]
+2.7 [-16.0, 3.9]
+69.5% [-413.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>2.9
+1.3 [0.0, 17.6]
+1.6 [-14.7, 2.9]
+56.5% [-505.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>15.7
+1.9 [0.0, 30.9]
+13.8 [-15.2, 15.7]
+88.0% [-96.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>14.7
+2.5 [0.0, 30.5]
+12.3 [-15.8, 14.7]
+83.3% [-107.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>11.8
+4.9 [0.0, 30.5]
+6.9 [-18.6, 11.8]
+58.2% [-157.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>53.2
+2.3 [0.0, 41.2]
+50.9 [12.0, 53.2]
+95.6% [22.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>52.2
+3.2 [0.0, 41.7]
+49.0 [10.6, 52.2]
+93.8% [20.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>49.3
+8.3 [0.0, 47.2]
+41.0 [2.1, 49.3]
+83.1% [4.3%, 100.0%]</t>
+  </si>
+  <si>
+    <t>37.5
+29.8 [0.0, 71.1]
+7.7 [-33.6, 37.5]
+20.5% [-89.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>111.7
+2.6 [0.0, 46.2]
+109.1 [65.5, 111.7]
+97.7% [58.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>110.7
+3.7 [0.0, 47.4]
+107.1 [63.4, 110.7]
+96.7% [57.2%, 100.0%]</t>
+  </si>
+  <si>
+    <t>107.8
+10.1 [0.0, 55.5]
+97.7 [52.3, 107.8]
+90.6% [48.5%, 100.0%]</t>
+  </si>
+  <si>
+    <t>96.0
+47.0 [0.0, 104.7]
+49.0 [-8.7, 96.0]
+51.0% [-9.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>170.5
+2.7 [0.0, 49.7]
+167.8 [120.8, 170.5]
+98.4% [70.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>169.5
+3.9 [0.0, 51.0]
+165.6 [118.5, 169.5]
+97.7% [69.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>166.6
+11.2 [0.0, 60.7]
+155.4 [106.0, 166.6]
+93.3% [63.6%, 100.0%]</t>
+  </si>
+  <si>
+    <t>154.8
+57.6 [0.0, 125.6]
+97.2 [29.2, 154.8]
+62.8% [18.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>221.0
+2.9 [0.0, 55.7]
+218.1 [165.3, 221.0]
+98.7% [74.8%, 100.0%]</t>
+  </si>
+  <si>
+    <t>220.0
+4.2 [0.0, 57.4]
+215.8 [162.6, 220.0]
+98.1% [73.9%, 100.0%]</t>
+  </si>
+  <si>
+    <t>217.1
+12.4 [0.0, 69.2]
+204.7 [147.9, 217.1]
+94.3% [68.1%, 100.0%]</t>
+  </si>
+  <si>
+    <t>205.3
+69.5 [0.0, 153.8]
+135.8 [51.5, 205.3]
+66.1% [25.1%, 100.0%]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1198,6 +1207,13 @@
     <font>
       <sz val="8"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1455,7 +1471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1591,9 +1607,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1671,6 +1684,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1994,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635503AF-5630-4745-A3E7-6CD39F37FDC0}">
   <dimension ref="C2:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:J13"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2021,34 +2043,34 @@
     </row>
     <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="18"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="19"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" s="18"/>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="11" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
+        <v>153</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
@@ -2078,20 +2100,20 @@
     </row>
     <row r="7" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C7" s="18"/>
-      <c r="D7" s="53">
+      <c r="D7" s="52">
         <v>44285</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="I7" s="42" t="s">
         <v>17</v>
@@ -2103,23 +2125,23 @@
     </row>
     <row r="8" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C8" s="18"/>
-      <c r="D8" s="55">
+      <c r="D8" s="54">
         <v>44301</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="55" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>154</v>
+        <v>52</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="J8" s="47" t="s">
         <v>17</v>
@@ -2128,23 +2150,23 @@
     </row>
     <row r="9" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C9" s="18"/>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>44316</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="J9" s="48" t="s">
         <v>18</v>
@@ -2153,14 +2175,14 @@
     </row>
     <row r="10" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="18"/>
-      <c r="D10" s="55">
+      <c r="D10" s="54">
         <v>44331</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="55" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2169,35 +2191,35 @@
         <v>12</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C11" s="18"/>
-      <c r="D11" s="53">
+      <c r="D11" s="52">
         <v>44346</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -2212,31 +2234,31 @@
       <c r="F12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>169</v>
+      <c r="G12" s="56" t="s">
+        <v>68</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>172</v>
+        <v>69</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>71</v>
       </c>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="3:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C13" s="18"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2264,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E3A7A1-1E39-724C-B640-902CB4BEED4C}">
   <dimension ref="C4:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:J15"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2291,15 +2313,15 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" s="18"/>
-      <c r="D6" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
+      <c r="D6" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
@@ -2314,11 +2336,11 @@
       <c r="G7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
@@ -2355,18 +2377,18 @@
         <v>4</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="60" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="19"/>
@@ -2380,18 +2402,18 @@
         <v>4</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="I10" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="63" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="19"/>
@@ -2405,19 +2427,19 @@
         <v>4</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="I11" s="61" t="s">
         <v>82</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -2430,19 +2452,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="64" t="s">
         <v>86</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -2455,19 +2477,19 @@
         <v>4</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="I13" s="62" t="s">
         <v>91</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>92</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -2479,34 +2501,34 @@
       <c r="E14" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>92</v>
+      <c r="F14" s="79" t="s">
+        <v>93</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="H14" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="I14" s="65" t="s">
         <v>96</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>97</v>
       </c>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="3:11" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C15" s="18"/>
-      <c r="D15" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
+      <c r="D15" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2534,15 +2556,15 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
@@ -2557,11 +2579,11 @@
       <c r="G21" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="73" t="s">
+      <c r="H21" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.2">
@@ -2598,18 +2620,18 @@
         <v>4</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="60" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="19"/>
@@ -2623,18 +2645,18 @@
         <v>4</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="64" t="s">
+      <c r="I24" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="63" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="19"/>
@@ -2648,19 +2670,19 @@
         <v>4</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="I25" s="62" t="s">
         <v>108</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>109</v>
       </c>
       <c r="K25" s="19"/>
     </row>
@@ -2673,19 +2695,19 @@
         <v>4</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="J26" s="65" t="s">
+      <c r="I26" s="64" t="s">
         <v>113</v>
+      </c>
+      <c r="J26" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="K26" s="19"/>
     </row>
@@ -2698,19 +2720,19 @@
         <v>4</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="I27" s="62" t="s">
         <v>118</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>119</v>
       </c>
       <c r="K27" s="19"/>
     </row>
@@ -2723,33 +2745,33 @@
         <v>4</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="66" t="s">
         <v>122</v>
+      </c>
+      <c r="I28" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="65" t="s">
+        <v>124</v>
       </c>
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="3:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C29" s="18"/>
-      <c r="D29" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
+      <c r="D29" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2777,15 +2799,15 @@
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C34" s="18"/>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
       <c r="K34" s="19"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.2">
@@ -2800,11 +2822,11 @@
       <c r="G35" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="73" t="s">
+      <c r="H35" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
       <c r="K35" s="19"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.2">
@@ -2841,18 +2863,18 @@
         <v>4</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="I37" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="61" t="s">
+      <c r="J37" s="60" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="19"/>
@@ -2866,18 +2888,18 @@
         <v>4</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="J38" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="63" t="s">
         <v>17</v>
       </c>
       <c r="K38" s="19"/>
@@ -2891,19 +2913,19 @@
         <v>4</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="J39" s="62" t="s">
         <v>134</v>
+      </c>
+      <c r="I39" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="K39" s="19"/>
     </row>
@@ -2916,19 +2938,19 @@
         <v>4</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="I40" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="J40" s="64" t="s">
         <v>139</v>
+      </c>
+      <c r="I40" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="63" t="s">
+        <v>141</v>
       </c>
       <c r="K40" s="19"/>
     </row>
@@ -2941,19 +2963,19 @@
         <v>4</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="J41" s="62" t="s">
         <v>144</v>
+      </c>
+      <c r="I41" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="J41" s="61" t="s">
+        <v>146</v>
       </c>
       <c r="K41" s="19"/>
     </row>
@@ -2966,33 +2988,33 @@
         <v>4</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="I42" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="J42" s="67" t="s">
         <v>149</v>
+      </c>
+      <c r="I42" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="J42" s="66" t="s">
+        <v>151</v>
       </c>
       <c r="K42" s="19"/>
     </row>
     <row r="43" spans="3:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C43" s="18"/>
-      <c r="D43" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
+      <c r="D43" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
       <c r="K43" s="19"/>
     </row>
     <row r="44" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3026,8 +3048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9C7BA-2307-9A4A-B352-2FB3768D84C5}">
   <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="F11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:Q24"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3056,28 +3078,28 @@
     </row>
     <row r="3" spans="2:18" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="18"/>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="76" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -3088,26 +3110,26 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="2:18" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
-      <c r="C6" s="53">
+      <c r="C6" s="52">
         <v>44285</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3126,10 +3148,10 @@
     </row>
     <row r="7" spans="2:18" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <v>44301</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -3148,10 +3170,10 @@
     </row>
     <row r="8" spans="2:18" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
-      <c r="C8" s="53">
+      <c r="C8" s="52">
         <v>44316</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -3170,10 +3192,10 @@
     </row>
     <row r="9" spans="2:18" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
-      <c r="C9" s="55">
+      <c r="C9" s="54">
         <v>44331</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -3192,10 +3214,10 @@
     </row>
     <row r="10" spans="2:18" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="18"/>
-      <c r="C10" s="53">
+      <c r="C10" s="52">
         <v>44346</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -3220,7 +3242,7 @@
       <c r="D11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="56" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="50" t="s">
@@ -3236,14 +3258,14 @@
     </row>
     <row r="12" spans="2:18" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3268,28 +3290,28 @@
     </row>
     <row r="15" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="18"/>
-      <c r="L15" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
+      <c r="L15" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
       <c r="R15" s="19"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="K16" s="18"/>
-      <c r="L16" s="52" t="s">
+      <c r="L16" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="52"/>
-      <c r="N16" s="76" t="s">
+      <c r="M16" s="51"/>
+      <c r="N16" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
       <c r="R16" s="19"/>
     </row>
     <row r="17" spans="11:18" x14ac:dyDescent="0.2">
@@ -3300,33 +3322,33 @@
       <c r="M17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="58" t="s">
+      <c r="N17" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="59" t="s">
+      <c r="O17" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="59" t="s">
+      <c r="P17" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="59" t="s">
+      <c r="Q17" s="58" t="s">
         <v>16</v>
       </c>
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="11:18" ht="48" x14ac:dyDescent="0.2">
       <c r="K18" s="18"/>
-      <c r="L18" s="53">
+      <c r="L18" s="52">
         <v>44285</v>
       </c>
-      <c r="M18" s="54" t="s">
+      <c r="M18" s="53" t="s">
         <v>4</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="O18" s="42" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="P18" s="42" t="s">
         <v>17</v>
@@ -3338,20 +3360,20 @@
     </row>
     <row r="19" spans="11:18" ht="48" x14ac:dyDescent="0.2">
       <c r="K19" s="18"/>
-      <c r="L19" s="55">
+      <c r="L19" s="54">
         <v>44301</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="60" t="s">
-        <v>48</v>
+      <c r="N19" s="59" t="s">
+        <v>157</v>
       </c>
       <c r="O19" s="49" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="P19" s="49" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="47" t="s">
         <v>17</v>
@@ -3360,67 +3382,67 @@
     </row>
     <row r="20" spans="11:18" ht="48" x14ac:dyDescent="0.2">
       <c r="K20" s="18"/>
-      <c r="L20" s="53">
+      <c r="L20" s="52">
         <v>44316</v>
       </c>
-      <c r="M20" s="54" t="s">
+      <c r="M20" s="53" t="s">
         <v>4</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="P20" s="43" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="48" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="R20" s="19"/>
     </row>
     <row r="21" spans="11:18" ht="48" x14ac:dyDescent="0.2">
       <c r="K21" s="18"/>
-      <c r="L21" s="55">
+      <c r="L21" s="54">
         <v>44331</v>
       </c>
-      <c r="M21" s="56" t="s">
+      <c r="M21" s="55" t="s">
         <v>4</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="O21" s="44" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="P21" s="44" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="Q21" s="49" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="R21" s="19"/>
     </row>
     <row r="22" spans="11:18" ht="48" x14ac:dyDescent="0.2">
       <c r="K22" s="18"/>
-      <c r="L22" s="53">
+      <c r="L22" s="52">
         <v>44346</v>
       </c>
-      <c r="M22" s="54" t="s">
+      <c r="M22" s="53" t="s">
         <v>4</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="P22" s="43" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="43" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="R22" s="19"/>
     </row>
@@ -3432,30 +3454,30 @@
       <c r="M23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="57" t="s">
-        <v>63</v>
+      <c r="N23" s="56" t="s">
+        <v>172</v>
       </c>
       <c r="O23" s="50" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="P23" s="50" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="50" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="R23" s="19"/>
     </row>
     <row r="24" spans="11:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="K24" s="18"/>
-      <c r="L24" s="71" t="s">
+      <c r="L24" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
       <c r="R24" s="19"/>
     </row>
     <row r="25" spans="11:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
